--- a/工作进度表.xlsx
+++ b/工作进度表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>后台增加修改：线路相关，首页轮播图，</t>
   </si>
@@ -122,9 +122,15 @@
     <t>首页布局参考驴友邦</t>
   </si>
   <si>
+    <t>相册和我的之间增加旅游定制</t>
+  </si>
+  <si>
     <t>后台</t>
   </si>
   <si>
+    <t>轮播图增加视频支持</t>
+  </si>
+  <si>
     <t>轮播图允许选择显示区域</t>
   </si>
   <si>
@@ -135,6 +141,45 @@
   </si>
   <si>
     <t>三个提示的后台管理和前端显示</t>
+  </si>
+  <si>
+    <t>POI系统</t>
+  </si>
+  <si>
+    <t>后台管理系统</t>
+  </si>
+  <si>
+    <t>前端显示</t>
+  </si>
+  <si>
+    <t>小程序商品</t>
+  </si>
+  <si>
+    <t>价格改回原价</t>
+  </si>
+  <si>
+    <t>物资管理小程序</t>
+  </si>
+  <si>
+    <t>企业微信群定时信息自动化</t>
+  </si>
+  <si>
+    <t>相册人像识别</t>
+  </si>
+  <si>
+    <t>向导等级</t>
+  </si>
+  <si>
+    <t>AI处理行程数据</t>
+  </si>
+  <si>
+    <t>图片压缩机制</t>
+  </si>
+  <si>
+    <t>POI竖屏图片和视频自适应</t>
+  </si>
+  <si>
+    <t>相册底部恢复tabbar</t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1524,37 +1569,122 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
